--- a/medicine/Handicap/Y'est_où_le_paradis__/Y'est_où_le_paradis__.xlsx
+++ b/medicine/Handicap/Y'est_où_le_paradis__/Y'est_où_le_paradis__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Y%27est_o%C3%B9_le_paradis_%3F</t>
+          <t>Y'est_où_le_paradis_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Y'est où le paradis ? est un film québécois réalisé par Denis Langlois, qui est sorti en 2017.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Y%27est_o%C3%B9_le_paradis_%3F</t>
+          <t>Y'est_où_le_paradis_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plein hiver, Samuel, un jeune homme et sa sœur Émilie tous les deux vivant avec une légère déficience intellectuelle, filent en douce de leur foyer d'accueil pour se lancer à la recherche de leur mère décédée subitement dans un accident routier. À une première tentative, ils se rendront à la maison de leur mère pour constater qu'elle n'y est plus. Par la suite, ils s'engouffreront dans la forêt à la recherche du Matchi Manitou, le paradis de la chasse et de la pêche, où ils pensent y retrouver leur mère.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Y%27est_o%C3%B9_le_paradis_%3F</t>
+          <t>Y'est_où_le_paradis_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Y'est où le paradis ?
 Réalisation : Denis Langlois
@@ -558,7 +574,7 @@
 Production : Nicolas Comeau, Bertrand Lachance
 Société de production : 1976 Productions, Les Productions Castor &amp; Pollux
 Sociétés de distribution : Axia Films
-Budget : 1,4 million de dollars[1]
+Budget : 1,4 million de dollars
 Pays de production :  Canada
 Langue originale : français
 Format : couleur
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Y%27est_o%C3%B9_le_paradis_%3F</t>
+          <t>Y'est_où_le_paradis_?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maxime Dumontier : Samuel
 Marine Johnson : Émilie
